--- a/Encuesta.xlsx
+++ b/Encuesta.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
   <si>
     <t>Fecha _____________________</t>
   </si>
@@ -243,6 +244,24 @@
   </si>
   <si>
     <t xml:space="preserve">Nombre __________________________________ Cargo _____________________ </t>
+  </si>
+  <si>
+    <t>Resgistro Notas, novedades de convivencia</t>
+  </si>
+  <si>
+    <t>formato solcitud de cupo
+pagare
+cifin
+entrevista</t>
+  </si>
+  <si>
+    <t>unicavez</t>
+  </si>
+  <si>
+    <t>ludoteca biblioteca auditorio</t>
+  </si>
+  <si>
+    <t>al culminar la carrera, perdida de cupo</t>
   </si>
 </sst>
 </file>
@@ -343,25 +362,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,6 +381,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection sqref="A1:G84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,33 +705,33 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -723,374 +745,374 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -1104,143 +1126,143 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -1254,191 +1276,191 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -1452,154 +1474,154 @@
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -1613,48 +1635,104 @@
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A29:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B79:G79"/>
@@ -1669,67 +1747,1190 @@
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="B75:G75"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A84:G84"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:G67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B59:G59"/>
     <mergeCell ref="B60:G60"/>
+    <mergeCell ref="A61:G61"/>
     <mergeCell ref="B62:G62"/>
     <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="B48:G48"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="A51:G51"/>
     <mergeCell ref="A52:G52"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:G37"/>
     <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A25:G25"/>
     <mergeCell ref="A29:G31"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A22:G22"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B23:G23"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G5"/>
+    <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
